--- a/config/excel/InitUnits.xlsx
+++ b/config/excel/InitUnits.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="22875" windowHeight="14280"/>
   </bookViews>
   <sheets>
-    <sheet name="InitUnits" sheetId="1" r:id="rId1"/>
+    <sheet name="ConfInitUnits" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/config/excel/InitUnits.xlsx
+++ b/config/excel/InitUnits.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -35,7 +35,13 @@
     <t>Camp</t>
   </si>
   <si>
-    <t>UnitType</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SubType</t>
+  </si>
+  <si>
+    <t>PrefabId</t>
   </si>
   <si>
     <t>Position</t>
@@ -56,7 +62,15 @@
     <t>阵营</t>
   </si>
   <si>
-    <t>单元类型</t>
+    <t>主类型
+1=建筑
+2=单位</t>
+  </si>
+  <si>
+    <t>子类型</t>
+  </si>
+  <si>
+    <t>资源ID</t>
   </si>
   <si>
     <t>位置</t>
@@ -74,10 +88,34 @@
     <t>32,0,10</t>
   </si>
   <si>
+    <t>坦克1</t>
+  </si>
+  <si>
+    <t>32,0,15</t>
+  </si>
+  <si>
+    <t>坦克2</t>
+  </si>
+  <si>
+    <t>32,0,20</t>
+  </si>
+  <si>
+    <t>坦克3</t>
+  </si>
+  <si>
+    <t>64,0,32</t>
+  </si>
+  <si>
     <t>坦克</t>
   </si>
   <si>
-    <t>32,0,15</t>
+    <t>64,0,10</t>
+  </si>
+  <si>
+    <t>64,0,15</t>
+  </si>
+  <si>
+    <t>64,0,20</t>
   </si>
 </sst>
 </file>
@@ -721,12 +759,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1045,18 +1086,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="15" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,90 +1115,241 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:5">
+    <row r="2" ht="15" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/InitUnits.xlsx
+++ b/config/excel/InitUnits.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -62,9 +62,7 @@
     <t>阵营</t>
   </si>
   <si>
-    <t>主类型
-1=建筑
-2=单位</t>
+    <t>主类型：1=建筑；2=单位</t>
   </si>
   <si>
     <t>子类型</t>
@@ -85,6 +83,27 @@
     <t>主基地</t>
   </si>
   <si>
+    <t>16,0,32</t>
+  </si>
+  <si>
+    <t>金矿</t>
+  </si>
+  <si>
+    <t>采矿场</t>
+  </si>
+  <si>
+    <t>16,0,25</t>
+  </si>
+  <si>
+    <t>电厂</t>
+  </si>
+  <si>
+    <t>32,0,50</t>
+  </si>
+  <si>
+    <t>坦克工厂</t>
+  </si>
+  <si>
     <t>32,0,10</t>
   </si>
   <si>
@@ -103,19 +122,28 @@
     <t>坦克3</t>
   </si>
   <si>
-    <t>64,0,32</t>
+    <t>96,0,32</t>
+  </si>
+  <si>
+    <t>112,0,32</t>
+  </si>
+  <si>
+    <t>112,0,25</t>
+  </si>
+  <si>
+    <t>96,0,50</t>
+  </si>
+  <si>
+    <t>96,0,10</t>
   </si>
   <si>
     <t>坦克</t>
   </si>
   <si>
-    <t>64,0,10</t>
-  </si>
-  <si>
-    <t>64,0,15</t>
-  </si>
-  <si>
-    <t>64,0,20</t>
+    <t>96,0,15</t>
+  </si>
+  <si>
+    <t>96,0,20</t>
   </si>
 </sst>
 </file>
@@ -1086,10 +1114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1179,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1199,13 +1227,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>18</v>
@@ -1222,19 +1250,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:7">
@@ -1245,19 +1273,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:7">
@@ -1265,22 +1293,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:7">
@@ -1288,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -1300,10 +1328,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:7">
@@ -1311,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
@@ -1326,7 +1354,7 @@
         <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:7">
@@ -1334,7 +1362,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
@@ -1346,10 +1374,194 @@
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:7">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/InitUnits.xlsx
+++ b/config/excel/InitUnits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyZiegler\github\ra2\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF03C7E-F3E2-4F3D-A527-85CE46CB1112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6AEC7F-FC1E-449A-ADD7-555881B6EC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15780" yWindow="4335" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8025" yWindow="6120" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfInitUnits" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>115,0,111</t>
+  </si>
+  <si>
+    <t>ConfID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -176,17 +188,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -530,21 +545,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F19"/>
+      <selection activeCell="E12" sqref="E12:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="4" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,16 +573,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -581,16 +599,19 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -604,16 +625,19 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -629,14 +653,17 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -652,14 +679,17 @@
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -675,14 +705,17 @@
       <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -698,14 +731,17 @@
       <c r="E7" s="3">
         <v>4</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -719,16 +755,19 @@
         <v>5</v>
       </c>
       <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -741,17 +780,18 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <v>6</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -764,17 +804,18 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
         <v>6</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -787,17 +828,18 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
         <v>6</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -810,17 +852,20 @@
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -833,17 +878,20 @@
       <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -856,17 +904,20 @@
       <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -879,17 +930,20 @@
       <c r="D15" s="4">
         <v>4</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -902,17 +956,20 @@
       <c r="D16" s="4">
         <v>5</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4">
         <v>5</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -925,17 +982,18 @@
       <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
         <v>6</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -948,17 +1006,18 @@
       <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
         <v>6</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -971,13 +1030,14 @@
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4">
         <v>6</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>24</v>
       </c>
     </row>

--- a/config/excel/InitUnits.xlsx
+++ b/config/excel/InitUnits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyZiegler\github\ra2\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6AEC7F-FC1E-449A-ADD7-555881B6EC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B44628-D7BA-4822-B8C7-631D6CBB92F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="6120" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14475" yWindow="3960" windowWidth="28725" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfInitUnits" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>子类型</t>
   </si>
   <si>
-    <t>资源ID</t>
-  </si>
-  <si>
     <t>位置</t>
   </si>
   <si>
@@ -168,6 +165,10 @@
   </si>
   <si>
     <t>配置ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ID-Deprecated</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -548,13 +549,14 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="6" width="10" customWidth="1"/>
+    <col min="4" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.625" customWidth="1"/>
   </cols>
@@ -573,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -599,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -625,16 +627,16 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -657,10 +659,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -683,10 +685,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -709,10 +711,10 @@
         <v>3</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -735,10 +737,10 @@
         <v>4</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -761,10 +763,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -785,10 +787,10 @@
         <v>6</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -809,10 +811,10 @@
         <v>6</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -833,10 +835,10 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -859,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -885,10 +887,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -911,10 +913,10 @@
         <v>3</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -937,10 +939,10 @@
         <v>4</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -963,10 +965,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -987,10 +989,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -1011,10 +1013,10 @@
         <v>6</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -1035,10 +1037,10 @@
         <v>6</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/InitUnits.xlsx
+++ b/config/excel/InitUnits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyZiegler\github\ra2\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B44628-D7BA-4822-B8C7-631D6CBB92F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD453571-F05E-4723-BF2A-BAD2E9AE925D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="3960" windowWidth="28725" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14955" yWindow="1905" windowWidth="28725" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfInitUnits" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>资源ID-Deprecated</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵营</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,0,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>112,0,122</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,6 +289,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -649,15 +664,11 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="6" t="s">
         <v>27</v>
       </c>
@@ -675,15 +686,11 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="6" t="s">
         <v>28</v>
       </c>
@@ -701,15 +708,11 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
@@ -727,15 +730,11 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>4</v>
       </c>
-      <c r="F7" s="3">
-        <v>4</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="6" t="s">
         <v>29</v>
       </c>
@@ -753,20 +752,16 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -777,20 +772,18 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>6</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>24</v>
+      <c r="F9" s="3"/>
+      <c r="G9" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -811,10 +804,10 @@
         <v>6</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -835,66 +828,60 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4">
@@ -903,124 +890,108 @@
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="4">
-        <v>3</v>
-      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="4">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4">
-        <v>4</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F17" s="4"/>
+      <c r="G17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3">
         <v>6</v>
       </c>
-      <c r="F16" s="4">
-        <v>5</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4">
-        <v>6</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4">
-        <v>6</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4">
@@ -1037,9 +1008,57 @@
         <v>6</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
+        <v>6</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
+        <v>6</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>23</v>
       </c>
     </row>

--- a/config/excel/InitUnits.xlsx
+++ b/config/excel/InitUnits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyZiegler\github\ra2\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD453571-F05E-4723-BF2A-BAD2E9AE925D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B95EAD6-7774-4ED4-82D2-8547497F3907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14955" yWindow="1905" windowWidth="28725" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="3975" windowWidth="28725" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfInitUnits" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -713,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="4"/>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>2</v>
       </c>
       <c r="F14" s="4"/>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>3</v>
       </c>
       <c r="F15" s="4"/>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>4</v>
       </c>
       <c r="F16" s="4"/>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>5</v>
       </c>
       <c r="F17" s="4"/>
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>6</v>
       </c>
       <c r="F18" s="4"/>

--- a/config/excel/InitUnits.xlsx
+++ b/config/excel/InitUnits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyZiegler\github\ra2\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B95EAD6-7774-4ED4-82D2-8547497F3907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8257FD4-4B4C-4EB0-9DD5-A8F22D7028AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="3975" windowWidth="28725" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28725" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfInitUnits" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -181,6 +181,14 @@
   </si>
   <si>
     <t>112,0,122</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enabled</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启动</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I1" sqref="I1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -576,7 +584,7 @@
     <col min="8" max="8" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,8 +609,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -627,8 +638,11 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -653,8 +667,11 @@
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -675,8 +692,11 @@
       <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -697,8 +717,11 @@
       <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -719,8 +742,11 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -741,8 +767,11 @@
       <c r="H7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -763,8 +792,11 @@
       <c r="H8" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -785,8 +817,11 @@
       <c r="H9" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -809,8 +844,11 @@
       <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -833,8 +871,11 @@
       <c r="H11" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -857,8 +898,11 @@
       <c r="H12" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -879,8 +923,11 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -901,8 +948,11 @@
       <c r="H14" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -923,8 +973,11 @@
       <c r="H15" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -945,8 +998,11 @@
       <c r="H16" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -967,8 +1023,11 @@
       <c r="H17" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -989,8 +1048,11 @@
       <c r="H18" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1013,8 +1075,11 @@
       <c r="H19" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1037,8 +1102,11 @@
       <c r="H20" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1060,6 +1128,9 @@
       </c>
       <c r="H21" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/InitUnits.xlsx
+++ b/config/excel/InitUnits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyZiegler\github\ra2\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8257FD4-4B4C-4EB0-9DD5-A8F22D7028AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29536B5D-4511-445C-9B05-0C4ABF6E6349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28725" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17970" yWindow="3285" windowWidth="28725" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfInitUnits" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>是否启动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>109,0,112</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>112,0,109</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +246,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +256,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,14 +317,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,18 +605,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I3"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -594,16 +630,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -623,16 +659,16 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -652,16 +688,16 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -681,12 +717,12 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -706,12 +742,12 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -731,12 +767,12 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>3</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -756,12 +792,12 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -781,12 +817,12 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
         <v>5</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -806,12 +842,12 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
         <v>6</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="10" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -831,14 +867,14 @@
       <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
         <v>6</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -858,14 +894,14 @@
       <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
         <v>6</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -885,14 +921,14 @@
       <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
         <v>6</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -912,12 +948,12 @@
       <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -937,12 +973,12 @@
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -962,12 +998,12 @@
       <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
         <v>3</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -987,12 +1023,12 @@
       <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
         <v>4</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -1012,12 +1048,12 @@
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
         <v>5</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="10" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -1037,12 +1073,12 @@
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
         <v>6</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="10" t="s">
         <v>44</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -1060,20 +1096,18 @@
         <v>2</v>
       </c>
       <c r="C19" s="4">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4">
-        <v>6</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
@@ -1087,20 +1121,18 @@
         <v>2</v>
       </c>
       <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4">
-        <v>6</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>7</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
@@ -1116,20 +1148,74 @@
       <c r="C21" s="4">
         <v>2</v>
       </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
         <v>6</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>37</v>
+      <c r="G21" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
+        <v>6</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <v>6</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="4">
         <v>1</v>
       </c>
     </row>

--- a/config/excel/InitUnits.xlsx
+++ b/config/excel/InitUnits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyZiegler\github\ra2\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29536B5D-4511-445C-9B05-0C4ABF6E6349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A46C0E-EE86-4721-ABBE-F7F6518608B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17970" yWindow="3285" windowWidth="28725" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20790" yWindow="5115" windowWidth="28725" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfInitUnits" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -895,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
@@ -922,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6">
@@ -1203,7 +1203,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6">
